--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_9_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_9_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1641013.185712179</v>
+        <v>1663021.428095871</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5863390.220421283</v>
+        <v>5863390.220421279</v>
       </c>
     </row>
     <row r="8">
@@ -659,67 +659,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>236.3626115273232</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>87.05142705643584</v>
       </c>
       <c r="G2" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>141.0252816852793</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="H2" t="n">
+      <c r="W2" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>76.62446154719014</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>76.62446154719007</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>28.69723130130875</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>256.3828486936959</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>70.49841198939487</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>180.2272021056872</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>80.40569357065911</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2445698843173</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>20.46539176180107</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,13 +981,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.6674648425864</v>
       </c>
       <c r="H6" t="n">
         <v>105.7062020873096</v>
@@ -1026,7 +1026,7 @@
         <v>159.1257957624181</v>
       </c>
       <c r="T6" t="n">
-        <v>175.4635683125277</v>
+        <v>197.4397634200247</v>
       </c>
       <c r="U6" t="n">
         <v>225.896904954618</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>24.79679516549537</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.4241998029167</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>138.4058679296848</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.70198428716928</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10.66766554576171</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>214.1391761462986</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.507807746501621</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>325.1172228173282</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>156.4277435039525</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>61.80474195134738</v>
       </c>
       <c r="S8" t="n">
-        <v>177.0734480055617</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>49.10891809950975</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>33.81322631855263</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1227,7 +1227,7 @@
         <v>136.5934151572083</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>104.9910380206319</v>
       </c>
       <c r="I9" t="n">
         <v>63.57075238159808</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>171.8687505543463</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5.597845318778879</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.6360325334498</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>33.50356646189937</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>149.0175444330455</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>213.0572776585077</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>228.9517460621856</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>333.0634165000695</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>76.08035852292305</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.0861178660617</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>67.22331801800702</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>346.6437410991183</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>208.2474868886332</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>95.65910954404444</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.781160222249659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>208.2474868886328</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>278.0818333067245</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>116.7550504648079</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>76.92035246272683</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>103.3387326418236</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>194.6624603617375</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.781160222249884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>18.4090786138986</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>171.1971464172157</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>28.553546045942</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>120.3332554667406</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>194.6624603617375</v>
@@ -3004,7 +3004,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>170.9812334109293</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>61.18421556648287</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>301.0185525624065</v>
       </c>
       <c r="I32" t="n">
         <v>65.70991267247047</v>
@@ -3187,19 +3187,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>42.97335239710576</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551288</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>194.6624603617375</v>
@@ -3241,13 +3241,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>261.9657095888486</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247156</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>95.87460607894958</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.781160222249884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247068</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987955</v>
       </c>
       <c r="T38" t="n">
         <v>206.6581849802338</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>79.41653965146662</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.543781602729483</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987946</v>
+        <v>123.4522153987955</v>
       </c>
       <c r="T41" t="n">
         <v>206.6581849802338</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>105.5027752869404</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.2588014327192</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>352.9057636894723</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>307.4270694733921</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838602</v>
       </c>
       <c r="T45" t="n">
         <v>192.0665623188214</v>
@@ -4138,22 +4138,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
         <v>220.7486959972119</v>
@@ -4192,16 +4192,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.3839034811602</v>
+        <v>209.7339065810866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1104.626054809422</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="C2" t="n">
-        <v>865.8759421555601</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="D2" t="n">
-        <v>586.9299687188374</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="E2" t="n">
-        <v>586.9299687188374</v>
+        <v>125.3383550191736</v>
       </c>
       <c r="F2" t="n">
-        <v>579.9844679696339</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
         <v>22.09252109618844</v>
@@ -4331,19 +4331,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
         <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="Y2" t="n">
-        <v>1104.626054809422</v>
+        <v>404.2843284558963</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>651.2519730171373</v>
+        <v>728.6504190244</v>
       </c>
       <c r="C3" t="n">
-        <v>476.7989437360102</v>
+        <v>554.197389743273</v>
       </c>
       <c r="D3" t="n">
-        <v>327.864534074759</v>
+        <v>405.2629800820217</v>
       </c>
       <c r="E3" t="n">
-        <v>168.6270790693035</v>
+        <v>246.0255250765662</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618844</v>
+        <v>99.4909671034512</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>99.4909671034512</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>99.4909671034512</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L3" t="n">
-        <v>212.4252932779024</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M3" t="n">
         <v>485.8202418432343</v>
@@ -4431,28 +4431,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1027.227608802159</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1027.227608802159</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>1027.227608802159</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>1027.227608802159</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>1027.227608802159</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W3" t="n">
-        <v>1027.227608802159</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X3" t="n">
-        <v>1027.227608802159</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y3" t="n">
-        <v>819.4673100372054</v>
+        <v>896.8657560444681</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>51.07962342074273</v>
       </c>
       <c r="F4" t="n">
         <v>22.09252109618844</v>
@@ -4513,25 +4513,25 @@
         <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.189804556039</v>
+        <v>877.2547131775502</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.227287615627</v>
+        <v>877.2547131775502</v>
       </c>
       <c r="D5" t="n">
         <v>877.2547131775502</v>
@@ -4571,7 +4571,7 @@
         <v>404.5208611180236</v>
       </c>
       <c r="L5" t="n">
-        <v>781.9984957235841</v>
+        <v>781.9984957235839</v>
       </c>
       <c r="M5" t="n">
         <v>1218.62164184883</v>
@@ -4589,28 +4589,28 @@
         <v>2402.369726410031</v>
       </c>
       <c r="R5" t="n">
-        <v>2331.159209249026</v>
+        <v>2402.369726410031</v>
       </c>
       <c r="S5" t="n">
-        <v>2149.111530354393</v>
+        <v>2402.369726410031</v>
       </c>
       <c r="T5" t="n">
-        <v>2149.111530354393</v>
+        <v>2321.151854116436</v>
       </c>
       <c r="U5" t="n">
-        <v>1895.32913653185</v>
+        <v>2321.151854116436</v>
       </c>
       <c r="V5" t="n">
-        <v>1895.32913653185</v>
+        <v>1990.088966772866</v>
       </c>
       <c r="W5" t="n">
-        <v>1895.32913653185</v>
+        <v>1637.320311502752</v>
       </c>
       <c r="X5" t="n">
-        <v>1895.32913653185</v>
+        <v>1263.854553241672</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.189804556039</v>
+        <v>1263.854553241672</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>704.2343815520971</v>
+        <v>829.5794288051975</v>
       </c>
       <c r="C6" t="n">
-        <v>529.7813522709702</v>
+        <v>655.1263995240705</v>
       </c>
       <c r="D6" t="n">
-        <v>380.8469426097189</v>
+        <v>506.1919898628192</v>
       </c>
       <c r="E6" t="n">
-        <v>221.6094876042634</v>
+        <v>506.1919898628192</v>
       </c>
       <c r="F6" t="n">
-        <v>221.6094876042634</v>
+        <v>359.6574318897042</v>
       </c>
       <c r="G6" t="n">
         <v>221.6094876042634</v>
@@ -4644,25 +4644,25 @@
         <v>48.04739452820063</v>
       </c>
       <c r="J6" t="n">
-        <v>110.5416665195092</v>
+        <v>48.04739452820063</v>
       </c>
       <c r="K6" t="n">
-        <v>343.9751744086568</v>
+        <v>145.3013936475782</v>
       </c>
       <c r="L6" t="n">
-        <v>675.4150181311516</v>
+        <v>520.5859487754817</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.33361457681</v>
+        <v>1010.50454522114</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.925911859561</v>
+        <v>1529.096842503892</v>
       </c>
       <c r="O6" t="n">
-        <v>2091.920870393237</v>
+        <v>1937.091801037567</v>
       </c>
       <c r="P6" t="n">
-        <v>2402.369726410031</v>
+        <v>2247.540657054361</v>
       </c>
       <c r="Q6" t="n">
         <v>2402.369726410031</v>
@@ -4674,22 +4674,22 @@
         <v>2182.865601964359</v>
       </c>
       <c r="T6" t="n">
-        <v>2005.629674375948</v>
+        <v>1983.431497499688</v>
       </c>
       <c r="U6" t="n">
-        <v>1777.450982502596</v>
+        <v>1755.252805626337</v>
       </c>
       <c r="V6" t="n">
-        <v>1542.298874270854</v>
+        <v>1520.100697394594</v>
       </c>
       <c r="W6" t="n">
-        <v>1288.061517542652</v>
+        <v>1265.863340666392</v>
       </c>
       <c r="X6" t="n">
-        <v>1080.210017337119</v>
+        <v>1058.01184046086</v>
       </c>
       <c r="Y6" t="n">
-        <v>872.4497185721652</v>
+        <v>850.2515416959056</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>356.7874844557892</v>
+        <v>386.0989307923871</v>
       </c>
       <c r="C7" t="n">
-        <v>187.8513015278823</v>
+        <v>217.1627478644802</v>
       </c>
       <c r="D7" t="n">
-        <v>187.8513015278823</v>
+        <v>217.1627478644802</v>
       </c>
       <c r="E7" t="n">
-        <v>187.8513015278823</v>
+        <v>217.1627478644802</v>
       </c>
       <c r="F7" t="n">
-        <v>187.8513015278823</v>
+        <v>217.1627478644802</v>
       </c>
       <c r="G7" t="n">
-        <v>187.8513015278823</v>
+        <v>48.04739452820063</v>
       </c>
       <c r="H7" t="n">
-        <v>187.8513015278823</v>
+        <v>48.04739452820063</v>
       </c>
       <c r="I7" t="n">
         <v>48.04739452820063</v>
@@ -4744,31 +4744,31 @@
         <v>627.4483967638962</v>
       </c>
       <c r="Q7" t="n">
-        <v>588.355483342513</v>
+        <v>627.4483967638962</v>
       </c>
       <c r="R7" t="n">
-        <v>577.5800635993194</v>
+        <v>627.4483967638962</v>
       </c>
       <c r="S7" t="n">
-        <v>577.5800635993194</v>
+        <v>411.1461986363218</v>
       </c>
       <c r="T7" t="n">
-        <v>577.5800635993194</v>
+        <v>411.1461986363218</v>
       </c>
       <c r="U7" t="n">
-        <v>577.5800635993194</v>
+        <v>411.1461986363218</v>
       </c>
       <c r="V7" t="n">
-        <v>577.5800635993194</v>
+        <v>411.1461986363218</v>
       </c>
       <c r="W7" t="n">
-        <v>577.5800635993194</v>
+        <v>411.1461986363218</v>
       </c>
       <c r="X7" t="n">
-        <v>577.5800635993194</v>
+        <v>411.1461986363218</v>
       </c>
       <c r="Y7" t="n">
-        <v>356.7874844557892</v>
+        <v>411.1461986363218</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1594.50379659615</v>
+        <v>2113.310456061945</v>
       </c>
       <c r="C8" t="n">
-        <v>1594.50379659615</v>
+        <v>2110.777316924065</v>
       </c>
       <c r="D8" t="n">
-        <v>1594.50379659615</v>
+        <v>1752.511618317315</v>
       </c>
       <c r="E8" t="n">
-        <v>1208.715543997906</v>
+        <v>1366.72336571907</v>
       </c>
       <c r="F8" t="n">
-        <v>797.7296392082985</v>
+        <v>955.7374609294627</v>
       </c>
       <c r="G8" t="n">
-        <v>379.6480217370216</v>
+        <v>537.6558434581857</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>209.2546082891673</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4814,10 +4814,10 @@
         <v>1296.559156998187</v>
       </c>
       <c r="N8" t="n">
-        <v>1750.063153682372</v>
+        <v>1750.063153682371</v>
       </c>
       <c r="O8" t="n">
-        <v>2133.106480061285</v>
+        <v>2133.106480061284</v>
       </c>
       <c r="P8" t="n">
         <v>2422.350714197592</v>
@@ -4826,28 +4826,28 @@
         <v>2562.339328400155</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2499.910296126067</v>
       </c>
       <c r="S8" t="n">
-        <v>2383.477259707669</v>
+        <v>2499.910296126067</v>
       </c>
       <c r="T8" t="n">
-        <v>2333.872291930386</v>
+        <v>2499.910296126067</v>
       </c>
       <c r="U8" t="n">
-        <v>2333.872291930386</v>
+        <v>2499.910296126067</v>
       </c>
       <c r="V8" t="n">
-        <v>2333.872291930386</v>
+        <v>2499.910296126067</v>
       </c>
       <c r="W8" t="n">
-        <v>1981.103636660272</v>
+        <v>2499.910296126067</v>
       </c>
       <c r="X8" t="n">
-        <v>1981.103636660272</v>
+        <v>2499.910296126067</v>
       </c>
       <c r="Y8" t="n">
-        <v>1981.103636660272</v>
+        <v>2499.910296126067</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>882.5922663059281</v>
+        <v>848.3455646401389</v>
       </c>
       <c r="C9" t="n">
-        <v>708.1392370248011</v>
+        <v>814.1907905809949</v>
       </c>
       <c r="D9" t="n">
-        <v>559.2048273635498</v>
+        <v>665.2563809197436</v>
       </c>
       <c r="E9" t="n">
-        <v>399.9673723580943</v>
+        <v>506.0189259142882</v>
       </c>
       <c r="F9" t="n">
-        <v>253.4328143849793</v>
+        <v>359.4843679411731</v>
       </c>
       <c r="G9" t="n">
-        <v>115.4596677615365</v>
+        <v>221.5112213177304</v>
       </c>
       <c r="H9" t="n">
         <v>115.4596677615365</v>
@@ -4896,10 +4896,10 @@
         <v>1803.29274509928</v>
       </c>
       <c r="O9" t="n">
-        <v>2228.729824465751</v>
+        <v>2073.704709726015</v>
       </c>
       <c r="P9" t="n">
-        <v>2553.177520175401</v>
+        <v>2398.152405435665</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4923,10 +4923,10 @@
         <v>1432.172700630694</v>
       </c>
       <c r="X9" t="n">
-        <v>1258.56790209095</v>
+        <v>1224.321200425161</v>
       </c>
       <c r="Y9" t="n">
-        <v>1050.807603325996</v>
+        <v>1016.560901660207</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>676.4309171708912</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>507.4947342429844</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>357.3780948306486</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>209.4650012482554</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>209.4650012482554</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>209.4650012482554</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4981,31 +4981,31 @@
         <v>682.085306381779</v>
       </c>
       <c r="Q10" t="n">
-        <v>648.2433200566281</v>
+        <v>682.085306381779</v>
       </c>
       <c r="R10" t="n">
-        <v>497.7205479020367</v>
+        <v>682.085306381779</v>
       </c>
       <c r="S10" t="n">
-        <v>282.5111765298067</v>
+        <v>682.085306381779</v>
       </c>
       <c r="T10" t="n">
-        <v>282.5111765298067</v>
+        <v>682.085306381779</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5111765298067</v>
+        <v>682.085306381779</v>
       </c>
       <c r="V10" t="n">
-        <v>282.5111765298067</v>
+        <v>682.085306381779</v>
       </c>
       <c r="W10" t="n">
-        <v>51.24678656800311</v>
+        <v>682.085306381779</v>
       </c>
       <c r="X10" t="n">
-        <v>51.24678656800311</v>
+        <v>682.085306381779</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800311</v>
+        <v>682.085306381779</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>778.4750021151654</v>
+        <v>1945.681952669558</v>
       </c>
       <c r="C11" t="n">
-        <v>409.5124851747536</v>
+        <v>1576.719435729147</v>
       </c>
       <c r="D11" t="n">
-        <v>51.24678656800311</v>
+        <v>1218.453737122396</v>
       </c>
       <c r="E11" t="n">
-        <v>51.24678656800311</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="F11" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G11" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H11" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J11" t="n">
         <v>187.5281822362819</v>
@@ -5057,34 +5057,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T11" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U11" t="n">
-        <v>2562.339328400155</v>
+        <v>2276.744840013129</v>
       </c>
       <c r="V11" t="n">
-        <v>2231.276441056585</v>
+        <v>1945.681952669558</v>
       </c>
       <c r="W11" t="n">
-        <v>1878.507785786471</v>
+        <v>1945.681952669558</v>
       </c>
       <c r="X11" t="n">
-        <v>1505.042027525391</v>
+        <v>1945.681952669558</v>
       </c>
       <c r="Y11" t="n">
-        <v>1114.902695549579</v>
+        <v>1945.681952669558</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D12" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F12" t="n">
         <v>302.1446891756898</v>
@@ -5112,10 +5112,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J12" t="n">
         <v>238.4273302370161</v>
@@ -5124,25 +5124,25 @@
         <v>423.1489515180662</v>
       </c>
       <c r="L12" t="n">
-        <v>1057.327935297105</v>
+        <v>821.9680821844941</v>
       </c>
       <c r="M12" t="n">
-        <v>1480.485115687205</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N12" t="n">
-        <v>1867.77024428415</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O12" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P12" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S12" t="n">
         <v>2426.617474780096</v>
@@ -5151,7 +5151,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V12" t="n">
         <v>1769.368633815395</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>937.5665200750353</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C13" t="n">
-        <v>768.6303371471284</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D13" t="n">
         <v>768.6303371471284</v>
@@ -5194,10 +5194,10 @@
         <v>157.1019332386097</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J13" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K13" t="n">
         <v>248.4064713020476</v>
@@ -5206,7 +5206,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N13" t="n">
         <v>1123.088724245823</v>
@@ -5218,7 +5218,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q13" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R13" t="n">
         <v>1533.86271359008</v>
@@ -5242,7 +5242,7 @@
         <v>1337.233965749941</v>
       </c>
       <c r="Y13" t="n">
-        <v>1116.441386606411</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1449.50507480484</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C14" t="n">
-        <v>1099.359881775428</v>
+        <v>1416.637639419811</v>
       </c>
       <c r="D14" t="n">
-        <v>741.0941831686771</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E14" t="n">
-        <v>355.3059305704328</v>
+        <v>672.583688214816</v>
       </c>
       <c r="F14" t="n">
-        <v>355.3059305704328</v>
+        <v>261.5977834252084</v>
       </c>
       <c r="G14" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H14" t="n">
         <v>51.24678656800312</v>
@@ -5279,10 +5279,10 @@
         <v>187.5281822362818</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M14" t="n">
         <v>1220.470313923562</v>
@@ -5315,13 +5315,13 @@
         <v>2562.339328400156</v>
       </c>
       <c r="W14" t="n">
-        <v>2209.570673130042</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X14" t="n">
-        <v>1836.104914868962</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="Y14" t="n">
-        <v>1836.104914868962</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L15" t="n">
-        <v>593.0223835625332</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M15" t="n">
-        <v>957.2304598751773</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.515588472123</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O15" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P15" t="n">
         <v>2239.046898434119</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.24678656800312</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="C16" t="n">
-        <v>51.24678656800312</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="D16" t="n">
-        <v>51.24678656800312</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="E16" t="n">
-        <v>51.24678656800312</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="F16" t="n">
-        <v>51.24678656800312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G16" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H16" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I16" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J16" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K16" t="n">
         <v>248.4064713020476</v>
@@ -5443,7 +5443,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
@@ -5455,7 +5455,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R16" t="n">
         <v>1533.86271359008</v>
@@ -5467,19 +5467,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U16" t="n">
-        <v>825.137147448514</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V16" t="n">
-        <v>570.4526592426272</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W16" t="n">
-        <v>281.0354892056666</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="X16" t="n">
-        <v>53.04593830764924</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.24678656800312</v>
+        <v>570.4526592426274</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1785.600156360222</v>
+        <v>778.4750021151654</v>
       </c>
       <c r="C17" t="n">
-        <v>1416.63763941981</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D17" t="n">
-        <v>1058.37194081306</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E17" t="n">
-        <v>672.5836882148155</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F17" t="n">
-        <v>261.597783425208</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G17" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H17" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I17" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M17" t="n">
         <v>1220.470313923562</v>
@@ -5534,31 +5534,31 @@
         <v>2360.886721764998</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V17" t="n">
-        <v>2562.339328400155</v>
+        <v>2281.448587686293</v>
       </c>
       <c r="W17" t="n">
-        <v>2562.339328400155</v>
+        <v>1928.679932416179</v>
       </c>
       <c r="X17" t="n">
-        <v>2562.339328400155</v>
+        <v>1555.214174155099</v>
       </c>
       <c r="Y17" t="n">
-        <v>2172.199996424344</v>
+        <v>1165.074842179287</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I18" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K18" t="n">
-        <v>560.1394111735142</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L18" t="n">
-        <v>854.8429682049859</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M18" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N18" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O18" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P18" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q18" t="n">
         <v>2562.339328400155</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1087.683159487371</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C19" t="n">
-        <v>918.7469765594642</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D19" t="n">
-        <v>768.6303371471284</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E19" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F19" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G19" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H19" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J19" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K19" t="n">
         <v>248.4064713020476</v>
@@ -5680,7 +5680,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M19" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N19" t="n">
         <v>1123.088724245823</v>
@@ -5692,31 +5692,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q19" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R19" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S19" t="n">
-        <v>1636.446120074497</v>
+        <v>1518.511725665601</v>
       </c>
       <c r="T19" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="U19" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="V19" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="W19" t="n">
-        <v>1347.028950037537</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X19" t="n">
-        <v>1269.331624317611</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y19" t="n">
-        <v>1269.331624317611</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2406.695065334317</v>
+        <v>2406.695065334316</v>
       </c>
       <c r="C20" t="n">
-        <v>2037.732548393906</v>
+        <v>2037.732548393905</v>
       </c>
       <c r="D20" t="n">
         <v>1679.466849787155</v>
@@ -5738,64 +5738,64 @@
         <v>1293.678597188911</v>
       </c>
       <c r="F20" t="n">
-        <v>882.6926923993033</v>
+        <v>882.692692399303</v>
       </c>
       <c r="G20" t="n">
-        <v>466.9879421235921</v>
+        <v>466.987942123592</v>
       </c>
       <c r="H20" t="n">
-        <v>162.9287981211624</v>
+        <v>162.9287981211623</v>
       </c>
       <c r="I20" t="n">
         <v>96.55514895705083</v>
       </c>
       <c r="J20" t="n">
-        <v>400.2421936456826</v>
+        <v>232.8365446253295</v>
       </c>
       <c r="K20" t="n">
-        <v>976.1351551364621</v>
+        <v>720.8859484633933</v>
       </c>
       <c r="L20" t="n">
-        <v>1742.857925347091</v>
+        <v>1487.608718674023</v>
       </c>
       <c r="M20" t="n">
-        <v>2167.572886183362</v>
+        <v>2357.342077668197</v>
       </c>
       <c r="N20" t="n">
-        <v>2951.265537715759</v>
+        <v>3226.516634143317</v>
       </c>
       <c r="O20" t="n">
-        <v>3726.8147866759</v>
+        <v>4002.065883103458</v>
       </c>
       <c r="P20" t="n">
-        <v>4351.053744789825</v>
+        <v>4626.304841217383</v>
       </c>
       <c r="Q20" t="n">
-        <v>4742.609445501984</v>
+        <v>4807.668701176236</v>
       </c>
       <c r="R20" t="n">
         <v>4827.757447852541</v>
       </c>
       <c r="S20" t="n">
-        <v>4703.058240379011</v>
+        <v>4703.05824037901</v>
       </c>
       <c r="T20" t="n">
         <v>4494.312598984836</v>
       </c>
       <c r="U20" t="n">
-        <v>4240.731538249016</v>
+        <v>4240.731538249015</v>
       </c>
       <c r="V20" t="n">
-        <v>3909.668650905445</v>
+        <v>3909.668650905444</v>
       </c>
       <c r="W20" t="n">
-        <v>3556.899995635331</v>
+        <v>3556.89999563533</v>
       </c>
       <c r="X20" t="n">
-        <v>3183.434237374251</v>
+        <v>3183.43423737425</v>
       </c>
       <c r="Y20" t="n">
-        <v>2793.294905398439</v>
+        <v>2793.294905398438</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>976.6125034856863</v>
+        <v>3196.722260549025</v>
       </c>
       <c r="C21" t="n">
-        <v>802.1594742045593</v>
+        <v>3022.269231267898</v>
       </c>
       <c r="D21" t="n">
-        <v>653.225064543308</v>
+        <v>2873.334821606647</v>
       </c>
       <c r="E21" t="n">
-        <v>493.9876095378526</v>
+        <v>2714.097366601191</v>
       </c>
       <c r="F21" t="n">
-        <v>347.4530515647376</v>
+        <v>2567.562808628076</v>
       </c>
       <c r="G21" t="n">
-        <v>210.7516410072997</v>
+        <v>2430.861398070638</v>
       </c>
       <c r="H21" t="n">
-        <v>116.9823805096267</v>
+        <v>2337.092137572965</v>
       </c>
       <c r="I21" t="n">
-        <v>96.55514895705083</v>
+        <v>2316.664906020389</v>
       </c>
       <c r="J21" t="n">
-        <v>283.7356926260638</v>
+        <v>2503.845449689402</v>
       </c>
       <c r="K21" t="n">
-        <v>468.4573139071139</v>
+        <v>2950.387655612905</v>
       </c>
       <c r="L21" t="n">
-        <v>763.1608709385856</v>
+        <v>3245.091212644377</v>
       </c>
       <c r="M21" t="n">
-        <v>1126.422889897806</v>
+        <v>3608.353231603598</v>
       </c>
       <c r="N21" t="n">
-        <v>1513.708018494751</v>
+        <v>3995.638360200543</v>
       </c>
       <c r="O21" t="n">
-        <v>2037.172526990869</v>
+        <v>4327.708795376704</v>
       </c>
       <c r="P21" t="n">
-        <v>2284.355260823166</v>
+        <v>4574.891529209001</v>
       </c>
       <c r="Q21" t="n">
-        <v>2607.647690789203</v>
+        <v>4827.757447852541</v>
       </c>
       <c r="R21" t="n">
-        <v>2607.647690789203</v>
+        <v>4827.757447852541</v>
       </c>
       <c r="S21" t="n">
-        <v>2471.925837169144</v>
+        <v>4692.035594232482</v>
       </c>
       <c r="T21" t="n">
-        <v>2277.919208564274</v>
+        <v>4498.028965627612</v>
       </c>
       <c r="U21" t="n">
-        <v>2049.829104436185</v>
+        <v>4269.938861499524</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.676996204443</v>
+        <v>4034.786753267781</v>
       </c>
       <c r="W21" t="n">
-        <v>1560.439639476241</v>
+        <v>3780.54939653958</v>
       </c>
       <c r="X21" t="n">
-        <v>1352.588139270708</v>
+        <v>3572.697896334047</v>
       </c>
       <c r="Y21" t="n">
-        <v>1144.827840505754</v>
+        <v>3364.937597569093</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.55514895705083</v>
+        <v>3346.940672570111</v>
       </c>
       <c r="C22" t="n">
-        <v>96.55514895705083</v>
+        <v>3346.940672570111</v>
       </c>
       <c r="D22" t="n">
-        <v>96.55514895705083</v>
+        <v>3346.940672570111</v>
       </c>
       <c r="E22" t="n">
-        <v>96.55514895705083</v>
+        <v>3346.940672570111</v>
       </c>
       <c r="F22" t="n">
-        <v>96.55514895705083</v>
+        <v>3346.940672570111</v>
       </c>
       <c r="G22" t="n">
-        <v>96.55514895705083</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="H22" t="n">
-        <v>96.55514895705083</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="I22" t="n">
-        <v>96.55514895705083</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="J22" t="n">
-        <v>122.0243219421697</v>
+        <v>3268.027287331166</v>
       </c>
       <c r="K22" t="n">
-        <v>293.7148336910953</v>
+        <v>3439.717799080091</v>
       </c>
       <c r="L22" t="n">
-        <v>568.9460123583713</v>
+        <v>3714.948977747367</v>
       </c>
       <c r="M22" t="n">
-        <v>869.5278230987066</v>
+        <v>4015.530788487702</v>
       </c>
       <c r="N22" t="n">
-        <v>1168.397086634871</v>
+        <v>4314.400052023866</v>
       </c>
       <c r="O22" t="n">
-        <v>1428.434929388083</v>
+        <v>4574.437894777078</v>
       </c>
       <c r="P22" t="n">
-        <v>1627.421544560072</v>
+        <v>4773.424509949067</v>
       </c>
       <c r="Q22" t="n">
-        <v>1681.754482463545</v>
+        <v>4827.757447852541</v>
       </c>
       <c r="R22" t="n">
-        <v>1579.171075979128</v>
+        <v>4827.757447852541</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.542328138989</v>
+        <v>4631.128700012402</v>
       </c>
       <c r="T22" t="n">
-        <v>1159.563847333724</v>
+        <v>4408.150219207138</v>
       </c>
       <c r="U22" t="n">
-        <v>870.445509837562</v>
+        <v>4119.031881710976</v>
       </c>
       <c r="V22" t="n">
-        <v>615.7610216316751</v>
+        <v>3864.347393505089</v>
       </c>
       <c r="W22" t="n">
-        <v>326.3438515947145</v>
+        <v>3574.930223468128</v>
       </c>
       <c r="X22" t="n">
-        <v>98.35430069669718</v>
+        <v>3346.940672570111</v>
       </c>
       <c r="Y22" t="n">
-        <v>96.55514895705083</v>
+        <v>3346.940672570111</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2406.695065334317</v>
+        <v>2406.695065334316</v>
       </c>
       <c r="C23" t="n">
-        <v>2037.732548393906</v>
+        <v>2037.732548393904</v>
       </c>
       <c r="D23" t="n">
-        <v>1679.466849787156</v>
+        <v>1679.466849787154</v>
       </c>
       <c r="E23" t="n">
-        <v>1293.678597188912</v>
+        <v>1293.67859718891</v>
       </c>
       <c r="F23" t="n">
-        <v>882.6926923993037</v>
+        <v>882.6926923993024</v>
       </c>
       <c r="G23" t="n">
-        <v>466.9879421235921</v>
+        <v>466.9879421235922</v>
       </c>
       <c r="H23" t="n">
-        <v>162.9287981211625</v>
+        <v>162.9287981211624</v>
       </c>
       <c r="I23" t="n">
         <v>96.55514895705083</v>
       </c>
       <c r="J23" t="n">
-        <v>400.2421936456826</v>
+        <v>232.8365446253295</v>
       </c>
       <c r="K23" t="n">
-        <v>655.8266927891414</v>
+        <v>808.7295061161092</v>
       </c>
       <c r="L23" t="n">
-        <v>1422.549462999771</v>
+        <v>1575.452276326738</v>
       </c>
       <c r="M23" t="n">
-        <v>2292.282821993945</v>
+        <v>2445.185635320913</v>
       </c>
       <c r="N23" t="n">
-        <v>3161.457378469065</v>
+        <v>3314.360191796033</v>
       </c>
       <c r="O23" t="n">
-        <v>3937.006627429206</v>
+        <v>4089.909440756174</v>
       </c>
       <c r="P23" t="n">
-        <v>4561.245585543131</v>
+        <v>4626.304841217383</v>
       </c>
       <c r="Q23" t="n">
-        <v>4742.609445501984</v>
+        <v>4807.668701176236</v>
       </c>
       <c r="R23" t="n">
         <v>4827.757447852541</v>
       </c>
       <c r="S23" t="n">
-        <v>4703.058240379011</v>
+        <v>4703.05824037901</v>
       </c>
       <c r="T23" t="n">
-        <v>4494.312598984836</v>
+        <v>4494.312598984834</v>
       </c>
       <c r="U23" t="n">
-        <v>4240.731538249016</v>
+        <v>4240.731538249014</v>
       </c>
       <c r="V23" t="n">
-        <v>3909.668650905445</v>
+        <v>3909.668650905443</v>
       </c>
       <c r="W23" t="n">
-        <v>3556.899995635331</v>
+        <v>3556.899995635329</v>
       </c>
       <c r="X23" t="n">
-        <v>3183.434237374251</v>
+        <v>3183.434237374249</v>
       </c>
       <c r="Y23" t="n">
-        <v>2793.294905398439</v>
+        <v>2793.294905398438</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3196.722260549025</v>
+        <v>976.6125034856863</v>
       </c>
       <c r="C24" t="n">
-        <v>3022.269231267898</v>
+        <v>802.1594742045593</v>
       </c>
       <c r="D24" t="n">
-        <v>2873.334821606647</v>
+        <v>653.225064543308</v>
       </c>
       <c r="E24" t="n">
-        <v>2714.097366601191</v>
+        <v>493.9876095378526</v>
       </c>
       <c r="F24" t="n">
-        <v>2567.562808628076</v>
+        <v>347.4530515647376</v>
       </c>
       <c r="G24" t="n">
-        <v>2430.861398070638</v>
+        <v>210.7516410072997</v>
       </c>
       <c r="H24" t="n">
-        <v>2337.092137572965</v>
+        <v>116.9823805096267</v>
       </c>
       <c r="I24" t="n">
-        <v>2316.664906020389</v>
+        <v>96.55514895705083</v>
       </c>
       <c r="J24" t="n">
-        <v>2379.015324702398</v>
+        <v>158.9055676390591</v>
       </c>
       <c r="K24" t="n">
-        <v>2825.557530625901</v>
+        <v>343.6271889201092</v>
       </c>
       <c r="L24" t="n">
-        <v>3120.261087657373</v>
+        <v>638.330745951581</v>
       </c>
       <c r="M24" t="n">
-        <v>3483.523106616593</v>
+        <v>1001.592764910801</v>
       </c>
       <c r="N24" t="n">
-        <v>3870.808235213538</v>
+        <v>1705.102091814707</v>
       </c>
       <c r="O24" t="n">
-        <v>4257.282284054208</v>
+        <v>2037.172526990869</v>
       </c>
       <c r="P24" t="n">
-        <v>4504.465017886505</v>
+        <v>2284.355260823166</v>
       </c>
       <c r="Q24" t="n">
-        <v>4827.757447852541</v>
+        <v>2607.647690789203</v>
       </c>
       <c r="R24" t="n">
-        <v>4827.757447852541</v>
+        <v>2607.647690789203</v>
       </c>
       <c r="S24" t="n">
-        <v>4692.035594232482</v>
+        <v>2471.925837169144</v>
       </c>
       <c r="T24" t="n">
-        <v>4498.028965627612</v>
+        <v>2277.919208564274</v>
       </c>
       <c r="U24" t="n">
-        <v>4269.938861499524</v>
+        <v>2049.829104436185</v>
       </c>
       <c r="V24" t="n">
-        <v>4034.786753267781</v>
+        <v>1814.676996204443</v>
       </c>
       <c r="W24" t="n">
-        <v>3780.54939653958</v>
+        <v>1560.439639476241</v>
       </c>
       <c r="X24" t="n">
-        <v>3572.697896334047</v>
+        <v>1352.588139270708</v>
       </c>
       <c r="Y24" t="n">
-        <v>3364.937597569093</v>
+        <v>1144.827840505754</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3816.20498149339</v>
+        <v>4024.400442458314</v>
       </c>
       <c r="C25" t="n">
-        <v>3647.268798565483</v>
+        <v>3855.464259530407</v>
       </c>
       <c r="D25" t="n">
-        <v>3497.152159153147</v>
+        <v>3705.347620118072</v>
       </c>
       <c r="E25" t="n">
-        <v>3497.152159153147</v>
+        <v>3557.434526535678</v>
       </c>
       <c r="F25" t="n">
-        <v>3497.152159153147</v>
+        <v>3410.544579037768</v>
       </c>
       <c r="G25" t="n">
-        <v>3497.152159153147</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="H25" t="n">
-        <v>3348.413261016653</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="I25" t="n">
         <v>3242.558114346047</v>
@@ -6169,28 +6169,28 @@
         <v>4827.757447852541</v>
       </c>
       <c r="R25" t="n">
-        <v>4725.174041368124</v>
+        <v>4827.757447852541</v>
       </c>
       <c r="S25" t="n">
-        <v>4528.545293527985</v>
+        <v>4827.757447852541</v>
       </c>
       <c r="T25" t="n">
-        <v>4305.56681272272</v>
+        <v>4827.757447852541</v>
       </c>
       <c r="U25" t="n">
-        <v>4016.448475226558</v>
+        <v>4827.757447852541</v>
       </c>
       <c r="V25" t="n">
-        <v>3997.85344632363</v>
+        <v>4827.757447852541</v>
       </c>
       <c r="W25" t="n">
-        <v>3997.85344632363</v>
+        <v>4654.831037330101</v>
       </c>
       <c r="X25" t="n">
-        <v>3997.85344632363</v>
+        <v>4426.841486432084</v>
       </c>
       <c r="Y25" t="n">
-        <v>3997.85344632363</v>
+        <v>4206.048907288554</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2406.695065334317</v>
+        <v>2406.695065334316</v>
       </c>
       <c r="C26" t="n">
-        <v>2037.732548393906</v>
+        <v>2037.732548393904</v>
       </c>
       <c r="D26" t="n">
-        <v>1679.466849787156</v>
+        <v>1679.466849787154</v>
       </c>
       <c r="E26" t="n">
-        <v>1293.678597188912</v>
+        <v>1293.67859718891</v>
       </c>
       <c r="F26" t="n">
-        <v>882.6926923993037</v>
+        <v>882.6926923993024</v>
       </c>
       <c r="G26" t="n">
-        <v>466.9879421235928</v>
+        <v>466.9879421235922</v>
       </c>
       <c r="H26" t="n">
-        <v>162.9287981211625</v>
+        <v>162.9287981211624</v>
       </c>
       <c r="I26" t="n">
         <v>96.55514895705083</v>
@@ -6227,49 +6227,49 @@
         <v>232.8365446253295</v>
       </c>
       <c r="K26" t="n">
-        <v>487.825547670656</v>
+        <v>720.8859484633933</v>
       </c>
       <c r="L26" t="n">
-        <v>1254.548317881285</v>
+        <v>1487.608718674023</v>
       </c>
       <c r="M26" t="n">
-        <v>2124.28167687546</v>
+        <v>2357.342077668197</v>
       </c>
       <c r="N26" t="n">
-        <v>2993.456233350579</v>
+        <v>3226.516634143317</v>
       </c>
       <c r="O26" t="n">
-        <v>3769.00548231072</v>
+        <v>4002.065883103458</v>
       </c>
       <c r="P26" t="n">
-        <v>4351.053744789825</v>
+        <v>4626.304841217383</v>
       </c>
       <c r="Q26" t="n">
-        <v>4742.609445501984</v>
+        <v>4807.668701176236</v>
       </c>
       <c r="R26" t="n">
         <v>4827.757447852541</v>
       </c>
       <c r="S26" t="n">
-        <v>4703.058240379011</v>
+        <v>4703.05824037901</v>
       </c>
       <c r="T26" t="n">
-        <v>4494.312598984836</v>
+        <v>4494.312598984834</v>
       </c>
       <c r="U26" t="n">
-        <v>4240.731538249016</v>
+        <v>4240.731538249014</v>
       </c>
       <c r="V26" t="n">
-        <v>3909.668650905445</v>
+        <v>3909.668650905443</v>
       </c>
       <c r="W26" t="n">
-        <v>3556.899995635331</v>
+        <v>3556.899995635329</v>
       </c>
       <c r="X26" t="n">
-        <v>3183.434237374251</v>
+        <v>3183.434237374249</v>
       </c>
       <c r="Y26" t="n">
-        <v>2793.294905398439</v>
+        <v>2793.294905398438</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>283.7356926260638</v>
       </c>
       <c r="K27" t="n">
-        <v>730.2778985495667</v>
+        <v>730.2778985495668</v>
       </c>
       <c r="L27" t="n">
-        <v>1162.531459117033</v>
+        <v>1024.981455581039</v>
       </c>
       <c r="M27" t="n">
-        <v>1525.793478076253</v>
+        <v>1388.243474540259</v>
       </c>
       <c r="N27" t="n">
-        <v>1913.078606673198</v>
+        <v>1775.528603137204</v>
       </c>
       <c r="O27" t="n">
-        <v>2245.14904184936</v>
+        <v>2107.599038313366</v>
       </c>
       <c r="P27" t="n">
-        <v>2492.331775681657</v>
+        <v>2354.781772145663</v>
       </c>
       <c r="Q27" t="n">
         <v>2607.647690789203</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>757.1228033599543</v>
+        <v>218.1038918527484</v>
       </c>
       <c r="C28" t="n">
-        <v>588.1866204320474</v>
+        <v>218.1038918527484</v>
       </c>
       <c r="D28" t="n">
-        <v>559.3446547290757</v>
+        <v>218.1038918527484</v>
       </c>
       <c r="E28" t="n">
-        <v>411.4315611466826</v>
+        <v>96.55514895705083</v>
       </c>
       <c r="F28" t="n">
-        <v>264.5416136487722</v>
+        <v>96.55514895705083</v>
       </c>
       <c r="G28" t="n">
         <v>96.55514895705083</v>
@@ -6385,13 +6385,13 @@
         <v>122.0243219421697</v>
       </c>
       <c r="K28" t="n">
-        <v>293.7148336910953</v>
+        <v>293.7148336910954</v>
       </c>
       <c r="L28" t="n">
         <v>568.9460123583713</v>
       </c>
       <c r="M28" t="n">
-        <v>869.5278230987066</v>
+        <v>869.5278230987067</v>
       </c>
       <c r="N28" t="n">
         <v>1168.397086634871</v>
@@ -6406,28 +6406,28 @@
         <v>1681.754482463545</v>
       </c>
       <c r="R28" t="n">
-        <v>1579.171075979128</v>
+        <v>1681.754482463545</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.542328138989</v>
+        <v>1681.754482463545</v>
       </c>
       <c r="T28" t="n">
-        <v>1159.563847333724</v>
+        <v>1681.754482463545</v>
       </c>
       <c r="U28" t="n">
-        <v>1159.563847333724</v>
+        <v>1392.636144967383</v>
       </c>
       <c r="V28" t="n">
-        <v>1159.563847333724</v>
+        <v>1137.951656761496</v>
       </c>
       <c r="W28" t="n">
-        <v>1159.563847333724</v>
+        <v>848.5344867245356</v>
       </c>
       <c r="X28" t="n">
-        <v>1159.563847333724</v>
+        <v>620.5449358265182</v>
       </c>
       <c r="Y28" t="n">
-        <v>938.7712681901941</v>
+        <v>399.7523566829881</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2406.695065334317</v>
+        <v>2406.695065334316</v>
       </c>
       <c r="C29" t="n">
-        <v>2037.732548393906</v>
+        <v>2037.732548393904</v>
       </c>
       <c r="D29" t="n">
-        <v>1679.466849787156</v>
+        <v>1679.466849787154</v>
       </c>
       <c r="E29" t="n">
-        <v>1293.678597188912</v>
+        <v>1293.67859718891</v>
       </c>
       <c r="F29" t="n">
-        <v>882.6926923993037</v>
+        <v>882.6926923993028</v>
       </c>
       <c r="G29" t="n">
-        <v>466.9879421235928</v>
+        <v>466.9879421235919</v>
       </c>
       <c r="H29" t="n">
-        <v>162.9287981211628</v>
+        <v>162.9287981211624</v>
       </c>
       <c r="I29" t="n">
         <v>96.55514895705083</v>
@@ -6464,49 +6464,49 @@
         <v>232.8365446253295</v>
       </c>
       <c r="K29" t="n">
-        <v>808.729506116109</v>
+        <v>510.6941077100876</v>
       </c>
       <c r="L29" t="n">
-        <v>1575.452276326738</v>
+        <v>1277.416877920717</v>
       </c>
       <c r="M29" t="n">
-        <v>2445.185635320913</v>
+        <v>2147.150236914892</v>
       </c>
       <c r="N29" t="n">
-        <v>3269.846258805527</v>
+        <v>3016.324793390011</v>
       </c>
       <c r="O29" t="n">
-        <v>4045.395507765668</v>
+        <v>3791.874042350152</v>
       </c>
       <c r="P29" t="n">
-        <v>4351.053744789825</v>
+        <v>4416.113000464077</v>
       </c>
       <c r="Q29" t="n">
-        <v>4742.609445501984</v>
+        <v>4807.668701176236</v>
       </c>
       <c r="R29" t="n">
         <v>4827.757447852541</v>
       </c>
       <c r="S29" t="n">
-        <v>4703.058240379011</v>
+        <v>4703.05824037901</v>
       </c>
       <c r="T29" t="n">
-        <v>4494.312598984836</v>
+        <v>4494.312598984835</v>
       </c>
       <c r="U29" t="n">
-        <v>4240.731538249016</v>
+        <v>4240.731538249014</v>
       </c>
       <c r="V29" t="n">
-        <v>3909.668650905445</v>
+        <v>3909.668650905443</v>
       </c>
       <c r="W29" t="n">
-        <v>3556.899995635331</v>
+        <v>3556.899995635329</v>
       </c>
       <c r="X29" t="n">
-        <v>3183.434237374251</v>
+        <v>3183.434237374249</v>
       </c>
       <c r="Y29" t="n">
-        <v>2793.294905398439</v>
+        <v>2793.294905398438</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>283.7356926260638</v>
       </c>
       <c r="K30" t="n">
-        <v>659.8513872270703</v>
+        <v>730.2778985495668</v>
       </c>
       <c r="L30" t="n">
-        <v>954.554944258542</v>
+        <v>1024.981455581039</v>
       </c>
       <c r="M30" t="n">
-        <v>1317.816963217762</v>
+        <v>1388.243474540259</v>
       </c>
       <c r="N30" t="n">
-        <v>1705.102091814707</v>
+        <v>1775.528603137204</v>
       </c>
       <c r="O30" t="n">
-        <v>2037.172526990869</v>
+        <v>2107.599038313366</v>
       </c>
       <c r="P30" t="n">
-        <v>2284.355260823166</v>
+        <v>2354.781772145663</v>
       </c>
       <c r="Q30" t="n">
         <v>2607.647690789203</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.5416136487722</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="C31" t="n">
-        <v>264.5416136487722</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="D31" t="n">
-        <v>264.5416136487722</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="E31" t="n">
-        <v>264.5416136487722</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="F31" t="n">
-        <v>264.5416136487722</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="G31" t="n">
-        <v>96.55514895705083</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="H31" t="n">
-        <v>96.55514895705083</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="I31" t="n">
-        <v>96.55514895705083</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="J31" t="n">
-        <v>122.0243219421697</v>
+        <v>3268.027287331166</v>
       </c>
       <c r="K31" t="n">
-        <v>293.7148336910953</v>
+        <v>3439.717799080091</v>
       </c>
       <c r="L31" t="n">
-        <v>568.9460123583713</v>
+        <v>3714.948977747367</v>
       </c>
       <c r="M31" t="n">
-        <v>869.5278230987066</v>
+        <v>4015.530788487702</v>
       </c>
       <c r="N31" t="n">
-        <v>1168.397086634871</v>
+        <v>4314.400052023866</v>
       </c>
       <c r="O31" t="n">
-        <v>1428.434929388083</v>
+        <v>4574.437894777078</v>
       </c>
       <c r="P31" t="n">
-        <v>1627.421544560072</v>
+        <v>4773.424509949067</v>
       </c>
       <c r="Q31" t="n">
-        <v>1681.754482463545</v>
+        <v>4827.757447852541</v>
       </c>
       <c r="R31" t="n">
-        <v>1579.171075979128</v>
+        <v>4827.757447852541</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.542328138989</v>
+        <v>4631.128700012402</v>
       </c>
       <c r="T31" t="n">
-        <v>1159.563847333724</v>
+        <v>4408.150219207138</v>
       </c>
       <c r="U31" t="n">
-        <v>870.445509837562</v>
+        <v>4235.441902630441</v>
       </c>
       <c r="V31" t="n">
-        <v>615.7610216316751</v>
+        <v>3980.757414424555</v>
       </c>
       <c r="W31" t="n">
-        <v>326.3438515947145</v>
+        <v>3691.340244387594</v>
       </c>
       <c r="X31" t="n">
-        <v>264.5416136487722</v>
+        <v>3463.350693489577</v>
       </c>
       <c r="Y31" t="n">
-        <v>264.5416136487722</v>
+        <v>3242.558114346047</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2406.695065334316</v>
+        <v>2406.695065334318</v>
       </c>
       <c r="C32" t="n">
-        <v>2037.732548393904</v>
+        <v>2037.732548393907</v>
       </c>
       <c r="D32" t="n">
-        <v>1679.466849787154</v>
+        <v>1679.466849787156</v>
       </c>
       <c r="E32" t="n">
-        <v>1293.67859718891</v>
+        <v>1293.678597188912</v>
       </c>
       <c r="F32" t="n">
-        <v>882.6926923993024</v>
+        <v>882.6926923993044</v>
       </c>
       <c r="G32" t="n">
-        <v>466.9879421235922</v>
+        <v>466.9879421235933</v>
       </c>
       <c r="H32" t="n">
-        <v>162.9287981211625</v>
+        <v>162.9287981211624</v>
       </c>
       <c r="I32" t="n">
-        <v>96.55514895705083</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="J32" t="n">
-        <v>400.2421936456826</v>
+        <v>232.8365446253295</v>
       </c>
       <c r="K32" t="n">
-        <v>655.8266927891414</v>
+        <v>808.7295061161091</v>
       </c>
       <c r="L32" t="n">
-        <v>1422.549462999771</v>
+        <v>1575.452276326738</v>
       </c>
       <c r="M32" t="n">
-        <v>2292.282821993945</v>
+        <v>2445.185635320913</v>
       </c>
       <c r="N32" t="n">
-        <v>3161.457378469065</v>
+        <v>3314.360191796032</v>
       </c>
       <c r="O32" t="n">
-        <v>3937.006627429206</v>
+        <v>4089.909440756173</v>
       </c>
       <c r="P32" t="n">
-        <v>4561.245585543131</v>
+        <v>4626.304841217384</v>
       </c>
       <c r="Q32" t="n">
-        <v>4742.609445501984</v>
+        <v>4807.668701176237</v>
       </c>
       <c r="R32" t="n">
-        <v>4827.757447852541</v>
+        <v>4827.757447852542</v>
       </c>
       <c r="S32" t="n">
-        <v>4703.05824037901</v>
+        <v>4703.058240379012</v>
       </c>
       <c r="T32" t="n">
-        <v>4494.312598984834</v>
+        <v>4494.312598984837</v>
       </c>
       <c r="U32" t="n">
-        <v>4240.731538249014</v>
+        <v>4240.731538249017</v>
       </c>
       <c r="V32" t="n">
-        <v>3909.668650905443</v>
+        <v>3909.668650905446</v>
       </c>
       <c r="W32" t="n">
-        <v>3556.899995635329</v>
+        <v>3556.899995635332</v>
       </c>
       <c r="X32" t="n">
-        <v>3183.434237374249</v>
+        <v>3183.434237374252</v>
       </c>
       <c r="Y32" t="n">
-        <v>2793.294905398438</v>
+        <v>2793.29490539844</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>976.6125034856863</v>
+        <v>976.6125034856865</v>
       </c>
       <c r="C33" t="n">
-        <v>802.1594742045593</v>
+        <v>802.1594742045595</v>
       </c>
       <c r="D33" t="n">
-        <v>653.225064543308</v>
+        <v>653.2250645433082</v>
       </c>
       <c r="E33" t="n">
-        <v>493.9876095378526</v>
+        <v>493.9876095378527</v>
       </c>
       <c r="F33" t="n">
         <v>347.4530515647376</v>
@@ -6774,22 +6774,22 @@
         <v>116.9823805096267</v>
       </c>
       <c r="I33" t="n">
-        <v>96.55514895705083</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="J33" t="n">
         <v>158.9055676390591</v>
       </c>
       <c r="K33" t="n">
-        <v>605.4477735625619</v>
+        <v>343.6271889201091</v>
       </c>
       <c r="L33" t="n">
-        <v>900.1513305940337</v>
+        <v>638.3307459515809</v>
       </c>
       <c r="M33" t="n">
-        <v>1263.413349553254</v>
+        <v>1001.592764910801</v>
       </c>
       <c r="N33" t="n">
-        <v>1650.698478150199</v>
+        <v>1705.102091814707</v>
       </c>
       <c r="O33" t="n">
         <v>2037.172526990869</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>351.1491937641513</v>
+        <v>1007.462765612255</v>
       </c>
       <c r="C34" t="n">
-        <v>351.1491937641513</v>
+        <v>964.0553389485119</v>
       </c>
       <c r="D34" t="n">
-        <v>351.1491937641513</v>
+        <v>813.9386995361762</v>
       </c>
       <c r="E34" t="n">
-        <v>351.1491937641513</v>
+        <v>666.025605953783</v>
       </c>
       <c r="F34" t="n">
-        <v>351.1491937641513</v>
+        <v>519.1356584558727</v>
       </c>
       <c r="G34" t="n">
         <v>351.1491937641513</v>
@@ -6853,13 +6853,13 @@
         <v>202.4102956276575</v>
       </c>
       <c r="I34" t="n">
-        <v>96.55514895705083</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="J34" t="n">
         <v>122.0243219421697</v>
       </c>
       <c r="K34" t="n">
-        <v>293.7148336910953</v>
+        <v>293.7148336910954</v>
       </c>
       <c r="L34" t="n">
         <v>568.9460123583713</v>
@@ -6880,28 +6880,28 @@
         <v>1681.754482463545</v>
       </c>
       <c r="R34" t="n">
-        <v>1579.171075979128</v>
+        <v>1681.754482463545</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.542328138989</v>
+        <v>1485.125734623407</v>
       </c>
       <c r="T34" t="n">
-        <v>1159.563847333724</v>
+        <v>1262.147253818142</v>
       </c>
       <c r="U34" t="n">
-        <v>870.445509837562</v>
+        <v>1262.147253818142</v>
       </c>
       <c r="V34" t="n">
-        <v>615.7610216316751</v>
+        <v>1007.462765612255</v>
       </c>
       <c r="W34" t="n">
-        <v>351.1491937641513</v>
+        <v>1007.462765612255</v>
       </c>
       <c r="X34" t="n">
-        <v>351.1491937641513</v>
+        <v>1007.462765612255</v>
       </c>
       <c r="Y34" t="n">
-        <v>351.1491937641513</v>
+        <v>1007.462765612255</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2406.695065334317</v>
+        <v>2406.695065334318</v>
       </c>
       <c r="C35" t="n">
-        <v>2037.732548393906</v>
+        <v>2037.732548393907</v>
       </c>
       <c r="D35" t="n">
-        <v>1679.466849787155</v>
+        <v>1679.466849787156</v>
       </c>
       <c r="E35" t="n">
-        <v>1293.678597188911</v>
+        <v>1293.678597188912</v>
       </c>
       <c r="F35" t="n">
-        <v>882.6926923993033</v>
+        <v>882.6926923993044</v>
       </c>
       <c r="G35" t="n">
-        <v>466.9879421235921</v>
+        <v>466.9879421235933</v>
       </c>
       <c r="H35" t="n">
-        <v>162.9287981211624</v>
+        <v>162.9287981211635</v>
       </c>
       <c r="I35" t="n">
-        <v>96.55514895705083</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="J35" t="n">
-        <v>232.8365446253295</v>
+        <v>400.2421936456826</v>
       </c>
       <c r="K35" t="n">
-        <v>808.729506116109</v>
+        <v>976.1351551364621</v>
       </c>
       <c r="L35" t="n">
-        <v>1277.416877920717</v>
+        <v>1742.857925347091</v>
       </c>
       <c r="M35" t="n">
-        <v>2147.150236914892</v>
+        <v>2167.572886183362</v>
       </c>
       <c r="N35" t="n">
-        <v>3016.324793390011</v>
+        <v>3016.324793390012</v>
       </c>
       <c r="O35" t="n">
-        <v>3791.874042350152</v>
+        <v>3791.874042350153</v>
       </c>
       <c r="P35" t="n">
-        <v>4416.113000464077</v>
+        <v>4416.113000464078</v>
       </c>
       <c r="Q35" t="n">
-        <v>4807.668701176236</v>
+        <v>4807.668701176237</v>
       </c>
       <c r="R35" t="n">
-        <v>4827.757447852541</v>
+        <v>4827.757447852542</v>
       </c>
       <c r="S35" t="n">
-        <v>4703.058240379011</v>
+        <v>4703.058240379012</v>
       </c>
       <c r="T35" t="n">
-        <v>4494.312598984836</v>
+        <v>4494.312598984837</v>
       </c>
       <c r="U35" t="n">
-        <v>4240.731538249016</v>
+        <v>4240.731538249017</v>
       </c>
       <c r="V35" t="n">
-        <v>3909.668650905445</v>
+        <v>3909.668650905446</v>
       </c>
       <c r="W35" t="n">
-        <v>3556.899995635331</v>
+        <v>3556.899995635332</v>
       </c>
       <c r="X35" t="n">
-        <v>3183.434237374251</v>
+        <v>3183.434237374252</v>
       </c>
       <c r="Y35" t="n">
-        <v>2793.294905398439</v>
+        <v>2793.29490539844</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>976.6125034856863</v>
+        <v>976.6125034856865</v>
       </c>
       <c r="C36" t="n">
-        <v>802.1594742045593</v>
+        <v>802.1594742045595</v>
       </c>
       <c r="D36" t="n">
-        <v>653.225064543308</v>
+        <v>653.2250645433082</v>
       </c>
       <c r="E36" t="n">
-        <v>493.9876095378526</v>
+        <v>493.9876095378527</v>
       </c>
       <c r="F36" t="n">
         <v>347.4530515647376</v>
@@ -7011,28 +7011,28 @@
         <v>116.9823805096267</v>
       </c>
       <c r="I36" t="n">
-        <v>96.55514895705083</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="J36" t="n">
         <v>158.9055676390591</v>
       </c>
       <c r="K36" t="n">
-        <v>605.4477735625619</v>
+        <v>343.6271889201091</v>
       </c>
       <c r="L36" t="n">
-        <v>900.1513305940337</v>
+        <v>638.3307459515809</v>
       </c>
       <c r="M36" t="n">
-        <v>1263.413349553254</v>
+        <v>1051.244527476135</v>
       </c>
       <c r="N36" t="n">
-        <v>1650.698478150199</v>
+        <v>1913.078606673198</v>
       </c>
       <c r="O36" t="n">
-        <v>2037.172526990869</v>
+        <v>2245.14904184936</v>
       </c>
       <c r="P36" t="n">
-        <v>2284.355260823166</v>
+        <v>2492.331775681657</v>
       </c>
       <c r="Q36" t="n">
         <v>2607.647690789203</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.55514895705083</v>
+        <v>3803.140374797642</v>
       </c>
       <c r="C37" t="n">
-        <v>96.55514895705083</v>
+        <v>3634.204191869735</v>
       </c>
       <c r="D37" t="n">
-        <v>96.55514895705083</v>
+        <v>3537.361155426352</v>
       </c>
       <c r="E37" t="n">
-        <v>96.55514895705083</v>
+        <v>3389.448061843959</v>
       </c>
       <c r="F37" t="n">
-        <v>96.55514895705083</v>
+        <v>3242.558114346049</v>
       </c>
       <c r="G37" t="n">
-        <v>96.55514895705083</v>
+        <v>3242.558114346049</v>
       </c>
       <c r="H37" t="n">
-        <v>96.55514895705083</v>
+        <v>3242.558114346049</v>
       </c>
       <c r="I37" t="n">
-        <v>96.55514895705083</v>
+        <v>3242.558114346049</v>
       </c>
       <c r="J37" t="n">
-        <v>122.0243219421697</v>
+        <v>3268.027287331167</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7148336910953</v>
+        <v>3439.717799080093</v>
       </c>
       <c r="L37" t="n">
-        <v>568.9460123583713</v>
+        <v>3714.948977747369</v>
       </c>
       <c r="M37" t="n">
-        <v>869.5278230987066</v>
+        <v>4015.530788487704</v>
       </c>
       <c r="N37" t="n">
-        <v>1168.397086634871</v>
+        <v>4314.400052023868</v>
       </c>
       <c r="O37" t="n">
-        <v>1428.434929388083</v>
+        <v>4574.43789477708</v>
       </c>
       <c r="P37" t="n">
-        <v>1627.421544560072</v>
+        <v>4773.424509949069</v>
       </c>
       <c r="Q37" t="n">
-        <v>1681.754482463545</v>
+        <v>4827.757447852542</v>
       </c>
       <c r="R37" t="n">
-        <v>1579.171075979128</v>
+        <v>4725.174041368125</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.542328138989</v>
+        <v>4725.174041368125</v>
       </c>
       <c r="T37" t="n">
-        <v>1159.563847333724</v>
+        <v>4502.19556056286</v>
       </c>
       <c r="U37" t="n">
-        <v>870.445509837562</v>
+        <v>4502.19556056286</v>
       </c>
       <c r="V37" t="n">
-        <v>615.7610216316751</v>
+        <v>4502.19556056286</v>
       </c>
       <c r="W37" t="n">
-        <v>326.3438515947145</v>
+        <v>4212.778390525899</v>
       </c>
       <c r="X37" t="n">
-        <v>98.35430069669718</v>
+        <v>3984.788839627882</v>
       </c>
       <c r="Y37" t="n">
-        <v>96.55514895705083</v>
+        <v>3984.788839627882</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>1293.678597188911</v>
       </c>
       <c r="F38" t="n">
-        <v>882.6926923993035</v>
+        <v>882.6926923993033</v>
       </c>
       <c r="G38" t="n">
-        <v>466.9879421235923</v>
+        <v>466.9879421235921</v>
       </c>
       <c r="H38" t="n">
-        <v>162.9287981211626</v>
+        <v>162.9287981211624</v>
       </c>
       <c r="I38" t="n">
-        <v>96.55514895705083</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="J38" t="n">
-        <v>400.2421936456826</v>
+        <v>253.3818673090775</v>
       </c>
       <c r="K38" t="n">
-        <v>976.1351551364621</v>
+        <v>829.274828799857</v>
       </c>
       <c r="L38" t="n">
-        <v>1742.857925347091</v>
+        <v>1595.997599010486</v>
       </c>
       <c r="M38" t="n">
-        <v>2292.282821993945</v>
+        <v>2465.730958004661</v>
       </c>
       <c r="N38" t="n">
-        <v>3161.457378469065</v>
+        <v>3334.90551447978</v>
       </c>
       <c r="O38" t="n">
-        <v>3937.006627429206</v>
+        <v>4110.454763439921</v>
       </c>
       <c r="P38" t="n">
-        <v>4561.245585543131</v>
+        <v>4416.113000464078</v>
       </c>
       <c r="Q38" t="n">
-        <v>4742.609445501984</v>
+        <v>4807.668701176237</v>
       </c>
       <c r="R38" t="n">
-        <v>4827.757447852541</v>
+        <v>4827.757447852542</v>
       </c>
       <c r="S38" t="n">
         <v>4703.058240379011</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>976.6125034856863</v>
+        <v>976.6125034856865</v>
       </c>
       <c r="C39" t="n">
-        <v>802.1594742045593</v>
+        <v>802.1594742045595</v>
       </c>
       <c r="D39" t="n">
-        <v>653.225064543308</v>
+        <v>653.2250645433082</v>
       </c>
       <c r="E39" t="n">
-        <v>493.9876095378526</v>
+        <v>493.9876095378527</v>
       </c>
       <c r="F39" t="n">
         <v>347.4530515647376</v>
@@ -7248,28 +7248,28 @@
         <v>116.9823805096267</v>
       </c>
       <c r="I39" t="n">
-        <v>96.55514895705083</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="J39" t="n">
         <v>283.7356926260638</v>
       </c>
       <c r="K39" t="n">
-        <v>659.8513872270703</v>
+        <v>730.2778985495667</v>
       </c>
       <c r="L39" t="n">
-        <v>954.554944258542</v>
+        <v>1024.981455581039</v>
       </c>
       <c r="M39" t="n">
-        <v>1317.816963217762</v>
+        <v>1388.243474540259</v>
       </c>
       <c r="N39" t="n">
-        <v>1705.102091814707</v>
+        <v>1775.528603137204</v>
       </c>
       <c r="O39" t="n">
-        <v>2037.172526990869</v>
+        <v>2107.599038313366</v>
       </c>
       <c r="P39" t="n">
-        <v>2284.355260823166</v>
+        <v>2354.781772145663</v>
       </c>
       <c r="Q39" t="n">
         <v>2607.647690789203</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3322.77684126672</v>
+        <v>208.0100750243539</v>
       </c>
       <c r="C40" t="n">
-        <v>3322.77684126672</v>
+        <v>208.0100750243539</v>
       </c>
       <c r="D40" t="n">
-        <v>3322.77684126672</v>
+        <v>208.0100750243539</v>
       </c>
       <c r="E40" t="n">
-        <v>3242.558114346047</v>
+        <v>208.0100750243539</v>
       </c>
       <c r="F40" t="n">
-        <v>3242.558114346047</v>
+        <v>208.0100750243539</v>
       </c>
       <c r="G40" t="n">
-        <v>3242.558114346047</v>
+        <v>208.0100750243539</v>
       </c>
       <c r="H40" t="n">
-        <v>3242.558114346047</v>
+        <v>202.4102956276575</v>
       </c>
       <c r="I40" t="n">
-        <v>3242.558114346047</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="J40" t="n">
-        <v>3268.027287331166</v>
+        <v>122.0243219421697</v>
       </c>
       <c r="K40" t="n">
-        <v>3439.717799080091</v>
+        <v>293.7148336910954</v>
       </c>
       <c r="L40" t="n">
-        <v>3714.948977747367</v>
+        <v>568.9460123583713</v>
       </c>
       <c r="M40" t="n">
-        <v>4015.530788487702</v>
+        <v>869.5278230987066</v>
       </c>
       <c r="N40" t="n">
-        <v>4314.400052023866</v>
+        <v>1168.397086634871</v>
       </c>
       <c r="O40" t="n">
-        <v>4574.437894777078</v>
+        <v>1428.434929388083</v>
       </c>
       <c r="P40" t="n">
-        <v>4773.424509949067</v>
+        <v>1627.421544560072</v>
       </c>
       <c r="Q40" t="n">
-        <v>4827.757447852541</v>
+        <v>1681.754482463545</v>
       </c>
       <c r="R40" t="n">
-        <v>4827.757447852541</v>
+        <v>1579.171075979128</v>
       </c>
       <c r="S40" t="n">
-        <v>4827.757447852541</v>
+        <v>1382.542328138989</v>
       </c>
       <c r="T40" t="n">
-        <v>4604.778967047277</v>
+        <v>1382.542328138989</v>
       </c>
       <c r="U40" t="n">
-        <v>4315.660629551115</v>
+        <v>1382.542328138989</v>
       </c>
       <c r="V40" t="n">
-        <v>4060.976141345228</v>
+        <v>1127.857839933102</v>
       </c>
       <c r="W40" t="n">
-        <v>3771.558971308267</v>
+        <v>838.4406698961411</v>
       </c>
       <c r="X40" t="n">
-        <v>3543.56942041025</v>
+        <v>610.4511189981238</v>
       </c>
       <c r="Y40" t="n">
-        <v>3322.77684126672</v>
+        <v>389.6585398545936</v>
       </c>
     </row>
     <row r="41">
@@ -7406,34 +7406,34 @@
         <v>162.9287981211624</v>
       </c>
       <c r="I41" t="n">
-        <v>96.55514895705083</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="J41" t="n">
         <v>400.2421936456826</v>
       </c>
       <c r="K41" t="n">
-        <v>655.231196691009</v>
+        <v>976.1351551364621</v>
       </c>
       <c r="L41" t="n">
-        <v>1421.953966901638</v>
+        <v>1742.857925347091</v>
       </c>
       <c r="M41" t="n">
-        <v>2291.687325895813</v>
+        <v>2580.123692082757</v>
       </c>
       <c r="N41" t="n">
-        <v>3160.861882370933</v>
+        <v>3016.324793390012</v>
       </c>
       <c r="O41" t="n">
-        <v>3791.874042350152</v>
+        <v>3791.874042350153</v>
       </c>
       <c r="P41" t="n">
-        <v>4416.113000464077</v>
+        <v>4416.113000464078</v>
       </c>
       <c r="Q41" t="n">
-        <v>4807.668701176236</v>
+        <v>4807.668701176237</v>
       </c>
       <c r="R41" t="n">
-        <v>4827.757447852541</v>
+        <v>4827.757447852542</v>
       </c>
       <c r="S41" t="n">
         <v>4703.058240379011</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>976.6125034856863</v>
+        <v>976.6125034856865</v>
       </c>
       <c r="C42" t="n">
-        <v>802.1594742045593</v>
+        <v>802.1594742045595</v>
       </c>
       <c r="D42" t="n">
-        <v>653.225064543308</v>
+        <v>653.2250645433082</v>
       </c>
       <c r="E42" t="n">
-        <v>493.9876095378526</v>
+        <v>493.9876095378527</v>
       </c>
       <c r="F42" t="n">
         <v>347.4530515647376</v>
@@ -7485,31 +7485,31 @@
         <v>116.9823805096267</v>
       </c>
       <c r="I42" t="n">
-        <v>96.55514895705083</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="J42" t="n">
         <v>158.9055676390591</v>
       </c>
       <c r="K42" t="n">
-        <v>605.4477735625619</v>
+        <v>552.5497611320231</v>
       </c>
       <c r="L42" t="n">
-        <v>930.216894534869</v>
+        <v>847.2533181634949</v>
       </c>
       <c r="M42" t="n">
-        <v>1293.478913494089</v>
+        <v>1210.515337122715</v>
       </c>
       <c r="N42" t="n">
-        <v>1680.764042091034</v>
+        <v>1597.80046571966</v>
       </c>
       <c r="O42" t="n">
-        <v>2012.834477267196</v>
+        <v>1929.870900895822</v>
       </c>
       <c r="P42" t="n">
-        <v>2260.017211099493</v>
+        <v>2492.331775681657</v>
       </c>
       <c r="Q42" t="n">
-        <v>2583.30964106553</v>
+        <v>2607.647690789203</v>
       </c>
       <c r="R42" t="n">
         <v>2607.647690789203</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>878.3974770693184</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="C43" t="n">
-        <v>709.4612941414115</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="D43" t="n">
-        <v>559.3446547290757</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="E43" t="n">
-        <v>411.4315611466826</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="F43" t="n">
-        <v>264.5416136487722</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="G43" t="n">
-        <v>96.55514895705083</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="H43" t="n">
-        <v>96.55514895705083</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="I43" t="n">
-        <v>96.55514895705083</v>
+        <v>96.55514895705085</v>
       </c>
       <c r="J43" t="n">
         <v>122.0243219421697</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7148336910953</v>
+        <v>293.7148336910954</v>
       </c>
       <c r="L43" t="n">
         <v>568.9460123583713</v>
@@ -7594,25 +7594,25 @@
         <v>1681.754482463545</v>
       </c>
       <c r="S43" t="n">
-        <v>1681.754482463545</v>
+        <v>1485.125734623407</v>
       </c>
       <c r="T43" t="n">
-        <v>1681.754482463545</v>
+        <v>1378.557274737608</v>
       </c>
       <c r="U43" t="n">
-        <v>1681.754482463545</v>
+        <v>1089.438937241446</v>
       </c>
       <c r="V43" t="n">
-        <v>1681.754482463545</v>
+        <v>834.754449035559</v>
       </c>
       <c r="W43" t="n">
-        <v>1392.337312426585</v>
+        <v>545.3372789985983</v>
       </c>
       <c r="X43" t="n">
-        <v>1164.347761528567</v>
+        <v>317.347728100581</v>
       </c>
       <c r="Y43" t="n">
-        <v>1060.045941899558</v>
+        <v>96.55514895705085</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1158.553337363322</v>
+        <v>1192.38452215733</v>
       </c>
       <c r="C44" t="n">
-        <v>1158.553337363322</v>
+        <v>823.4220052169187</v>
       </c>
       <c r="D44" t="n">
-        <v>1158.553337363322</v>
+        <v>823.4220052169187</v>
       </c>
       <c r="E44" t="n">
-        <v>772.7650847650775</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F44" t="n">
-        <v>361.77917997547</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G44" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H44" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O44" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P44" t="n">
         <v>2360.886721764998</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U44" t="n">
-        <v>2308.758267664335</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V44" t="n">
-        <v>2308.758267664335</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W44" t="n">
-        <v>2308.758267664335</v>
+        <v>1955.989612394222</v>
       </c>
       <c r="X44" t="n">
-        <v>1935.292509403255</v>
+        <v>1582.523854133142</v>
       </c>
       <c r="Y44" t="n">
-        <v>1545.153177427444</v>
+        <v>1192.38452215733</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D45" t="n">
         <v>607.9167021542605</v>
@@ -7713,43 +7713,43 @@
         <v>448.679247148805</v>
       </c>
       <c r="F45" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K45" t="n">
-        <v>560.1394111735142</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L45" t="n">
-        <v>854.8429682049859</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M45" t="n">
-        <v>1218.104987164206</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.390115761151</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O45" t="n">
-        <v>1967.526114878149</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P45" t="n">
-        <v>2214.708848710446</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R45" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S45" t="n">
         <v>2426.617474780096</v>
@@ -7764,7 +7764,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
         <v>1307.279776881661</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C46" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D46" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E46" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F46" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G46" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H46" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I46" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J46" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K46" t="n">
         <v>248.4064713020476</v>
@@ -7828,28 +7828,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R46" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T46" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U46" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V46" t="n">
-        <v>1310.884232784815</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W46" t="n">
-        <v>1310.884232784815</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X46" t="n">
-        <v>1310.884232784815</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="Y46" t="n">
-        <v>1100.395441389704</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>175.6660461607827</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>336.4470769688303</v>
       </c>
       <c r="N3" t="n">
         <v>387.9064735273546</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>62.9655080764608</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>126.9101776491745</v>
       </c>
       <c r="L6" t="n">
-        <v>326.5527580252685</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.68428838668758</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>237.2712942870969</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>53.4862627462165</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>342.9044714621886</v>
+        <v>105.1672460959152</v>
       </c>
       <c r="M12" t="n">
-        <v>60.50016306149496</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9556134883070513</v>
+        <v>193.327346787835</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>84.94186588374629</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>54.95314511566465</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>235.4145462552902</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>351.0015658839818</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3273467878345</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111047</v>
       </c>
       <c r="R21" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.601511210234662</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>233.0678418556082</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,10 +9726,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>319.4183821282431</v>
       </c>
       <c r="O24" t="n">
-        <v>54.95314511566443</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>235.4145462552902</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>279.1818438938867</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.9393975111054</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>138.9393975111052</v>
       </c>
       <c r="R27" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>23.09955559538543</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10121,19 +10121,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>392.3833557347058</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>193.3273467878348</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111052</v>
       </c>
       <c r="R30" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.601511210234662</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>233.0678418556096</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,10 +10437,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>319.4183821282436</v>
       </c>
       <c r="O33" t="n">
-        <v>54.95314511566488</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>116.6153575746715</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>416.7179857569647</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10665,25 +10665,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>50.15329552053925</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>54.95314511566488</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>20.93778120154988</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>20.75285119570501</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>125.9696321319022</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3273467878348</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R39" t="n">
         <v>20.93778120154988</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>416.7179857569646</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>234.8031216860571</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,10 +11139,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241556</v>
       </c>
       <c r="L42" t="n">
-        <v>30.36925650589427</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>30.36925650589438</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111066</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.6704251634111</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>174.964891605539</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.745862315875598</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>151.3613353340878</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>18.62915067188925</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>203.3002158843207</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>49.7619384788868</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.8034931298451</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23738,19 +23738,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>203.3002158843212</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,13 +23789,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>49.67042516341041</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>77.90740989692955</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2271541212006</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>148.7893029263103</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3066000448042</v>
+        <v>62.96786740298056</v>
       </c>
       <c r="H22" t="n">
         <v>147.2515091551288</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.8034931298449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7285647099294</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193753</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>120.0619269722704</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>26.1007071798286</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
         <v>147.2515091551288</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
         <v>147.2515091551288</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>115.2459207102713</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>164.5254398225543</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25075,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>124.2734687015221</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.5572887477424</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>52.74086693926277</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.3066000448042</v>
@@ -25360,16 +25360,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.8034931298449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>67.01742299510255</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
-        <v>147.2515091551288</v>
+        <v>141.7077275523993</v>
       </c>
       <c r="I40" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
         <v>147.2515091551288</v>
@@ -25834,16 +25834,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>115.2459207102716</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.3258519193756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>29.02460638278944</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>104.1206332995619</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>301.0185525624054</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26080,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.2007498709346</v>
+        <v>8.850746771008232</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>668676.2359988383</v>
+        <v>668676.2359988382</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>896915.0837785023</v>
+        <v>896915.0837785021</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>896915.0837785021</v>
+        <v>896915.0837785022</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>896915.0837785021</v>
+        <v>896915.0837785022</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896915.0837785021</v>
+        <v>896915.0837785022</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>668676.2359988382</v>
+        <v>668676.2359988383</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>554203.1946583908</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>413061.7011673168</v>
+        <v>413061.7011673166</v>
       </c>
       <c r="F2" t="n">
-        <v>413061.7011673168</v>
+        <v>413061.7011673166</v>
       </c>
       <c r="G2" t="n">
-        <v>413061.7011673166</v>
+        <v>413061.7011673167</v>
       </c>
       <c r="H2" t="n">
+        <v>531155.3334418595</v>
+      </c>
+      <c r="I2" t="n">
+        <v>531155.3334418592</v>
+      </c>
+      <c r="J2" t="n">
         <v>531155.3334418593</v>
-      </c>
-      <c r="I2" t="n">
-        <v>531155.3334418593</v>
-      </c>
-      <c r="J2" t="n">
-        <v>531155.3334418595</v>
       </c>
       <c r="K2" t="n">
         <v>531155.3334418593</v>
       </c>
       <c r="L2" t="n">
-        <v>531155.3334418596</v>
+        <v>531155.3334418597</v>
       </c>
       <c r="M2" t="n">
-        <v>531155.3334418595</v>
+        <v>531155.3334418592</v>
       </c>
       <c r="N2" t="n">
-        <v>531155.3334418596</v>
+        <v>531155.3334418593</v>
       </c>
       <c r="O2" t="n">
-        <v>531155.3334418596</v>
+        <v>531155.3334418599</v>
       </c>
       <c r="P2" t="n">
-        <v>413061.7011673167</v>
+        <v>413061.7011673168</v>
       </c>
     </row>
     <row r="3">
@@ -26393,7 +26393,7 @@
         <v>83499.42331812641</v>
       </c>
       <c r="L3" t="n">
-        <v>10121.71663432061</v>
+        <v>10121.71663432067</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346189.7113132068</v>
+        <v>342104.9357195593</v>
       </c>
       <c r="C4" t="n">
-        <v>245876.4203817988</v>
+        <v>241607.1169498924</v>
       </c>
       <c r="D4" t="n">
-        <v>233511.6210574273</v>
+        <v>229219.5713425005</v>
       </c>
       <c r="E4" t="n">
-        <v>11945.10908737288</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="F4" t="n">
-        <v>11945.10908737289</v>
+        <v>11359.04569987401</v>
       </c>
       <c r="G4" t="n">
-        <v>11945.10908737288</v>
+        <v>11359.04569987401</v>
       </c>
       <c r="H4" t="n">
-        <v>54548.6780618237</v>
+        <v>51790.6081786596</v>
       </c>
       <c r="I4" t="n">
-        <v>54548.6780618237</v>
+        <v>51790.6081786596</v>
       </c>
       <c r="J4" t="n">
-        <v>54548.67806182371</v>
+        <v>51790.6081786596</v>
       </c>
       <c r="K4" t="n">
-        <v>54548.67806182371</v>
+        <v>51790.6081786596</v>
       </c>
       <c r="L4" t="n">
-        <v>54548.67806182371</v>
+        <v>51790.60817865958</v>
       </c>
       <c r="M4" t="n">
-        <v>54548.6780618237</v>
+        <v>51790.60817865962</v>
       </c>
       <c r="N4" t="n">
-        <v>54548.6780618237</v>
+        <v>51790.60817865963</v>
       </c>
       <c r="O4" t="n">
-        <v>54548.6780618237</v>
+        <v>51790.60817865963</v>
       </c>
       <c r="P4" t="n">
-        <v>11945.10908737288</v>
+        <v>11359.04569987403</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>80177.50742093753</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="F5" t="n">
         <v>59310.17243984473</v>
       </c>
       <c r="G5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="H5" t="n">
         <v>93744.52785552098</v>
@@ -26497,19 +26497,19 @@
         <v>93744.52785552098</v>
       </c>
       <c r="L5" t="n">
-        <v>93744.52785552098</v>
+        <v>93744.527855521</v>
       </c>
       <c r="M5" t="n">
-        <v>93744.52785552098</v>
+        <v>93744.527855521</v>
       </c>
       <c r="N5" t="n">
-        <v>93744.52785552098</v>
+        <v>93744.527855521</v>
       </c>
       <c r="O5" t="n">
-        <v>93744.52785552098</v>
+        <v>93744.527855521</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984473</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30538.7623815909</v>
+        <v>34623.5379752384</v>
       </c>
       <c r="C6" t="n">
-        <v>-127800.7851608637</v>
+        <v>-123531.4817289571</v>
       </c>
       <c r="D6" t="n">
-        <v>198607.7976518183</v>
+        <v>202899.8473667451</v>
       </c>
       <c r="E6" t="n">
-        <v>-128452.0756344462</v>
+        <v>-127866.0122469474</v>
       </c>
       <c r="F6" t="n">
-        <v>341806.4196400992</v>
+        <v>342392.4830275979</v>
       </c>
       <c r="G6" t="n">
-        <v>341806.419640099</v>
+        <v>342392.483027598</v>
       </c>
       <c r="H6" t="n">
-        <v>230054.5781766824</v>
+        <v>232812.6480598467</v>
       </c>
       <c r="I6" t="n">
-        <v>382862.1275245147</v>
+        <v>385620.1974076787</v>
       </c>
       <c r="J6" t="n">
-        <v>310607.4326533757</v>
+        <v>313365.5025365397</v>
       </c>
       <c r="K6" t="n">
-        <v>299362.7042063882</v>
+        <v>302120.7740895523</v>
       </c>
       <c r="L6" t="n">
-        <v>372740.4108901942</v>
+        <v>375498.4807733584</v>
       </c>
       <c r="M6" t="n">
-        <v>382862.1275245148</v>
+        <v>385620.1974076786</v>
       </c>
       <c r="N6" t="n">
-        <v>382862.1275245149</v>
+        <v>385620.1974076787</v>
       </c>
       <c r="O6" t="n">
-        <v>382862.1275245149</v>
+        <v>385620.1974076793</v>
       </c>
       <c r="P6" t="n">
-        <v>341806.4196400991</v>
+        <v>342392.483027598</v>
       </c>
     </row>
   </sheetData>
@@ -26744,25 +26744,25 @@
         <v>348.7316343695034</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="G3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="H3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="I3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="J3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="K3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="L3" t="n">
         <v>934.0648921175393</v>
@@ -26796,13 +26796,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="F4" t="n">
         <v>640.584832100039</v>
       </c>
       <c r="G4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="H4" t="n">
         <v>1206.939361963135</v>
@@ -26817,19 +26817,19 @@
         <v>1206.939361963135</v>
       </c>
       <c r="L4" t="n">
-        <v>1206.939361963135</v>
+        <v>1206.939361963136</v>
       </c>
       <c r="M4" t="n">
-        <v>1206.939361963135</v>
+        <v>1206.939361963136</v>
       </c>
       <c r="N4" t="n">
-        <v>1206.939361963135</v>
+        <v>1206.939361963136</v>
       </c>
       <c r="O4" t="n">
-        <v>1206.939361963135</v>
+        <v>1206.939361963136</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
     </row>
   </sheetData>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>566.3545298630964</v>
+        <v>566.3545298630963</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>324.4359179001524</v>
       </c>
       <c r="L4" t="n">
-        <v>39.99240049753098</v>
+        <v>39.99240049753121</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>566.3545298630964</v>
+        <v>566.3545298630963</v>
       </c>
     </row>
   </sheetData>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>128.9102802436844</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
+        <v>319.8246186852756</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>139.005434824964</v>
-      </c>
       <c r="H2" t="n">
-        <v>61.87643319194537</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27436,10 +27436,10 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27476,7 +27476,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>10.17861567549726</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.8563823531895</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>116.7238167216225</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27585,7 +27585,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>47.78481791206872</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
         <v>227.6757534850358</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>98.30019292698705</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>70.49841198939487</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>180.2272021056872</v>
       </c>
       <c r="T5" t="n">
-        <v>217.564712870938</v>
+        <v>137.1590193002789</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2445698843173</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>146.0677918880663</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,13 +27701,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.6674648425864</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>21.97619510749701</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>155.0351850164419</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4241998029167</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>157.1879870045294</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>138.4058679296848</v>
       </c>
       <c r="J7" t="n">
         <v>53.28786553985032</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.70198428716928</v>
       </c>
       <c r="R7" t="n">
-        <v>141.1412559976719</v>
+        <v>151.8089215434336</v>
       </c>
       <c r="S7" t="n">
-        <v>214.1391761462986</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.5238949636928</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>362.7650840245059</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>156.4277435039525</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>61.80474195134738</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>177.0734480055617</v>
       </c>
       <c r="T8" t="n">
-        <v>167.8499556678277</v>
+        <v>216.9588737673374</v>
       </c>
       <c r="U8" t="n">
         <v>251.2334980103508</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>138.8952726697631</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.9910380206319</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>33.90423464913113</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>174.2341348631584</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>167.3621190341859</v>
       </c>
       <c r="H10" t="n">
-        <v>156.6360325334498</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>136.5389299027613</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>33.50356646189937</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>149.0175444330455</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>213.0572776585077</v>
       </c>
       <c r="T10" t="n">
         <v>225.2586407700247</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>57.57125227440542</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31756,28 +31756,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I11" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J11" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L11" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O11" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q11" t="n">
         <v>405.5015080147052</v>
@@ -31792,7 +31792,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H12" t="n">
         <v>19.40387634380021</v>
@@ -31841,10 +31841,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K12" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M12" t="n">
         <v>509.0653662040589</v>
@@ -31853,7 +31853,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P12" t="n">
         <v>383.6539365378626</v>
@@ -31865,10 +31865,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U12" t="n">
         <v>0.1321789941675764</v>
@@ -31914,19 +31914,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K13" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L13" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M13" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N13" t="n">
         <v>257.7559726067959</v>
@@ -31941,16 +31941,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S13" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,28 +31993,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I14" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J14" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L14" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O14" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q14" t="n">
         <v>405.5015080147052</v>
@@ -32029,7 +32029,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H15" t="n">
         <v>19.40387634380021</v>
@@ -32078,10 +32078,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M15" t="n">
         <v>509.0653662040589</v>
@@ -32090,7 +32090,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P15" t="n">
         <v>383.6539365378626</v>
@@ -32102,10 +32102,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U15" t="n">
         <v>0.1321789941675764</v>
@@ -32151,19 +32151,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K16" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L16" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N16" t="n">
         <v>257.7559726067959</v>
@@ -32178,16 +32178,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S16" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,28 +32230,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I17" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J17" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K17" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L17" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N17" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O17" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P17" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q17" t="n">
         <v>405.5015080147052</v>
@@ -32266,7 +32266,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H18" t="n">
         <v>19.40387634380021</v>
@@ -32315,10 +32315,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K18" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M18" t="n">
         <v>509.0653662040589</v>
@@ -32327,7 +32327,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O18" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P18" t="n">
         <v>383.6539365378626</v>
@@ -32339,10 +32339,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S18" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T18" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U18" t="n">
         <v>0.1321789941675764</v>
@@ -32388,19 +32388,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J19" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K19" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L19" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M19" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N19" t="n">
         <v>257.7559726067959</v>
@@ -32415,16 +32415,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R19" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S19" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T19" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,28 +32467,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I20" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J20" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K20" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L20" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M20" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N20" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O20" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P20" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q20" t="n">
         <v>405.5015080147052</v>
@@ -32503,7 +32503,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H21" t="n">
         <v>19.40387634380021</v>
@@ -32552,10 +32552,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K21" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M21" t="n">
         <v>509.0653662040589</v>
@@ -32564,7 +32564,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O21" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P21" t="n">
         <v>383.6539365378626</v>
@@ -32576,10 +32576,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S21" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T21" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U21" t="n">
         <v>0.1321789941675764</v>
@@ -32625,19 +32625,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I22" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J22" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K22" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L22" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M22" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N22" t="n">
         <v>257.7559726067959</v>
@@ -32652,16 +32652,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R22" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S22" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T22" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,28 +32704,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I23" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J23" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K23" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L23" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M23" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N23" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O23" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P23" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q23" t="n">
         <v>405.5015080147052</v>
@@ -32740,7 +32740,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H24" t="n">
         <v>19.40387634380021</v>
@@ -32789,10 +32789,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K24" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L24" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M24" t="n">
         <v>509.0653662040589</v>
@@ -32801,7 +32801,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O24" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P24" t="n">
         <v>383.6539365378626</v>
@@ -32813,10 +32813,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S24" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T24" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U24" t="n">
         <v>0.1321789941675764</v>
@@ -32862,19 +32862,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I25" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J25" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K25" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L25" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M25" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N25" t="n">
         <v>257.7559726067959</v>
@@ -32889,16 +32889,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R25" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S25" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T25" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,28 +32941,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I26" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J26" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K26" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L26" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M26" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N26" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O26" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P26" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q26" t="n">
         <v>405.5015080147052</v>
@@ -32977,7 +32977,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H27" t="n">
         <v>19.40387634380021</v>
@@ -33026,10 +33026,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K27" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L27" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M27" t="n">
         <v>509.0653662040589</v>
@@ -33038,7 +33038,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O27" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P27" t="n">
         <v>383.6539365378626</v>
@@ -33050,10 +33050,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S27" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T27" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U27" t="n">
         <v>0.1321789941675764</v>
@@ -33099,19 +33099,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I28" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J28" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K28" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L28" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M28" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N28" t="n">
         <v>257.7559726067959</v>
@@ -33126,16 +33126,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R28" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S28" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T28" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,28 +33178,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I29" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J29" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K29" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L29" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M29" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N29" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O29" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P29" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q29" t="n">
         <v>405.5015080147052</v>
@@ -33214,7 +33214,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H30" t="n">
         <v>19.40387634380021</v>
@@ -33263,10 +33263,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K30" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L30" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M30" t="n">
         <v>509.0653662040589</v>
@@ -33275,7 +33275,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O30" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P30" t="n">
         <v>383.6539365378626</v>
@@ -33287,10 +33287,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S30" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T30" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U30" t="n">
         <v>0.1321789941675764</v>
@@ -33336,19 +33336,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I31" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J31" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K31" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L31" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M31" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N31" t="n">
         <v>257.7559726067959</v>
@@ -33363,16 +33363,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R31" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S31" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T31" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34387,7 +34387,7 @@
         <v>539.9786897190645</v>
       </c>
       <c r="Q44" t="n">
-        <v>405.5015080147046</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R44" t="n">
         <v>235.8772011235312</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53.4675863044962</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>213.3996301387353</v>
       </c>
       <c r="N3" t="n">
         <v>276.1565137023555</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.12552726394804</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>235.7914221102502</v>
+        <v>98.23636274684603</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7877209318129</v>
+        <v>379.0753082100035</v>
       </c>
       <c r="M6" t="n">
         <v>494.8672691370291</v>
@@ -35033,7 +35033,7 @@
         <v>313.5847030472672</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>156.3929993491615</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>543.0896923213257</v>
       </c>
       <c r="O9" t="n">
-        <v>429.7344236024969</v>
+        <v>273.1433986128643</v>
       </c>
       <c r="P9" t="n">
         <v>327.724945161262</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.254351742176386</v>
+        <v>165.845376731809</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L11" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O11" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P11" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q11" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K12" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L12" t="n">
-        <v>640.5848321000389</v>
+        <v>402.8476067337655</v>
       </c>
       <c r="M12" t="n">
-        <v>427.4314953435355</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N12" t="n">
         <v>391.197099592874</v>
@@ -35510,7 +35510,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K13" t="n">
         <v>173.4247593423491</v>
@@ -35574,7 +35574,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M13" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N13" t="n">
         <v>301.8881449860245</v>
@@ -35647,28 +35647,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L14" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O14" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P14" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q14" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939915</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K15" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M15" t="n">
-        <v>367.8869457703476</v>
+        <v>560.2586790698756</v>
       </c>
       <c r="N15" t="n">
         <v>391.197099592874</v>
@@ -35741,7 +35741,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P15" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q15" t="n">
         <v>326.5580100667037</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K16" t="n">
         <v>173.4247593423491</v>
@@ -35811,7 +35811,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N16" t="n">
         <v>301.8881449860245</v>
@@ -35884,28 +35884,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L17" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O17" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P17" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q17" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K18" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L18" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9313322820406</v>
+        <v>451.8731981657869</v>
       </c>
       <c r="N18" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O18" t="n">
-        <v>390.3778271117877</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P18" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q18" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K19" t="n">
         <v>173.4247593423491</v>
@@ -36048,7 +36048,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M19" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N19" t="n">
         <v>301.8881449860245</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>306.7545905945775</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K20" t="n">
-        <v>581.7100621118985</v>
+        <v>492.979195796024</v>
       </c>
       <c r="L20" t="n">
         <v>774.4674446572013</v>
       </c>
       <c r="M20" t="n">
-        <v>429.0050109457278</v>
+        <v>878.5185444385604</v>
       </c>
       <c r="N20" t="n">
-        <v>791.6087389216133</v>
+        <v>877.9540974496158</v>
       </c>
       <c r="O20" t="n">
         <v>783.3830797577182</v>
       </c>
       <c r="P20" t="n">
-        <v>630.5444021352776</v>
+        <v>630.5444021352778</v>
       </c>
       <c r="Q20" t="n">
-        <v>395.5108088001604</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R20" t="n">
-        <v>86.00808318238151</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K21" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L21" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M21" t="n">
         <v>366.9313322820406</v>
@@ -36212,13 +36212,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O21" t="n">
-        <v>528.7520287839576</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P21" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q21" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419594</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K22" t="n">
         <v>173.4247593423491</v>
@@ -36285,7 +36285,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M22" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N22" t="n">
         <v>301.8881449860245</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>306.7545905945775</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K23" t="n">
-        <v>258.1661607509685</v>
+        <v>581.7100621118987</v>
       </c>
       <c r="L23" t="n">
         <v>774.4674446572013</v>
       </c>
       <c r="M23" t="n">
-        <v>878.5185444385603</v>
+        <v>878.5185444385604</v>
       </c>
       <c r="N23" t="n">
-        <v>877.9540974496157</v>
+        <v>877.9540974496158</v>
       </c>
       <c r="O23" t="n">
         <v>783.3830797577182</v>
       </c>
       <c r="P23" t="n">
-        <v>630.5444021352776</v>
+        <v>541.8135358194032</v>
       </c>
       <c r="Q23" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R23" t="n">
-        <v>86.00808318238151</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K24" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L24" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M24" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N24" t="n">
-        <v>391.197099592874</v>
+        <v>710.6154817211171</v>
       </c>
       <c r="O24" t="n">
-        <v>390.3778271117875</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P24" t="n">
         <v>249.6795291235323</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K25" t="n">
         <v>173.4247593423491</v>
@@ -36522,7 +36522,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M25" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N25" t="n">
         <v>301.8881449860245</v>
@@ -36595,28 +36595,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K26" t="n">
-        <v>257.5646495407338</v>
+        <v>492.979195796024</v>
       </c>
       <c r="L26" t="n">
         <v>774.4674446572013</v>
       </c>
       <c r="M26" t="n">
-        <v>878.5185444385603</v>
+        <v>878.5185444385604</v>
       </c>
       <c r="N26" t="n">
-        <v>877.9540974496157</v>
+        <v>877.9540974496158</v>
       </c>
       <c r="O26" t="n">
         <v>783.3830797577182</v>
       </c>
       <c r="P26" t="n">
-        <v>587.9275378576816</v>
+        <v>630.5444021352778</v>
       </c>
       <c r="Q26" t="n">
-        <v>395.5108088001604</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R26" t="n">
-        <v>86.00808318238151</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L27" t="n">
-        <v>436.6197581489556</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M27" t="n">
         <v>366.9313322820406</v>
@@ -36692,7 +36692,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K28" t="n">
         <v>173.4247593423491</v>
@@ -36759,7 +36759,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M28" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N28" t="n">
         <v>301.8881449860245</v>
@@ -36832,28 +36832,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K29" t="n">
-        <v>581.7100621118985</v>
+        <v>280.6642051361193</v>
       </c>
       <c r="L29" t="n">
         <v>774.4674446572013</v>
       </c>
       <c r="M29" t="n">
-        <v>878.5185444385603</v>
+        <v>878.5185444385604</v>
       </c>
       <c r="N29" t="n">
-        <v>832.9905287723374</v>
+        <v>877.9540974496158</v>
       </c>
       <c r="O29" t="n">
         <v>783.3830797577182</v>
       </c>
       <c r="P29" t="n">
-        <v>308.745693963795</v>
+        <v>630.5444021352778</v>
       </c>
       <c r="Q29" t="n">
         <v>395.5108088001604</v>
       </c>
       <c r="R29" t="n">
-        <v>86.00808318238151</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L30" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M30" t="n">
         <v>366.9313322820406</v>
@@ -36929,7 +36929,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q30" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K31" t="n">
         <v>173.4247593423491</v>
@@ -36996,7 +36996,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M31" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N31" t="n">
         <v>301.8881449860245</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>306.7545905945775</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K32" t="n">
-        <v>258.1661607509685</v>
+        <v>581.7100621118985</v>
       </c>
       <c r="L32" t="n">
         <v>774.4674446572013</v>
@@ -37084,13 +37084,13 @@
         <v>783.3830797577182</v>
       </c>
       <c r="P32" t="n">
-        <v>630.5444021352776</v>
+        <v>541.8135358194046</v>
       </c>
       <c r="Q32" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R32" t="n">
-        <v>86.00808318238151</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K33" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378502</v>
@@ -37157,10 +37157,10 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N33" t="n">
-        <v>391.197099592874</v>
+        <v>710.6154817211176</v>
       </c>
       <c r="O33" t="n">
-        <v>390.377827111788</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P33" t="n">
         <v>249.6795291235323</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>137.6579754225037</v>
+        <v>306.7545905945775</v>
       </c>
       <c r="K35" t="n">
         <v>581.7100621118985</v>
       </c>
       <c r="L35" t="n">
-        <v>473.4215876814224</v>
+        <v>774.4674446572013</v>
       </c>
       <c r="M35" t="n">
-        <v>878.5185444385603</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N35" t="n">
-        <v>877.9540974496157</v>
+        <v>857.3251587945962</v>
       </c>
       <c r="O35" t="n">
         <v>783.3830797577182</v>
@@ -37385,25 +37385,25 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K36" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M36" t="n">
-        <v>366.9313322820406</v>
+        <v>417.0846278025798</v>
       </c>
       <c r="N36" t="n">
-        <v>391.197099592874</v>
+        <v>870.5394739364275</v>
       </c>
       <c r="O36" t="n">
-        <v>390.377827111788</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P36" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>306.7545905945775</v>
+        <v>158.4108266182087</v>
       </c>
       <c r="K38" t="n">
         <v>581.7100621118985</v>
@@ -37549,7 +37549,7 @@
         <v>774.4674446572013</v>
       </c>
       <c r="M38" t="n">
-        <v>554.97464307763</v>
+        <v>878.5185444385603</v>
       </c>
       <c r="N38" t="n">
         <v>877.9540974496157</v>
@@ -37558,13 +37558,13 @@
         <v>783.3830797577182</v>
       </c>
       <c r="P38" t="n">
-        <v>630.5444021352776</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q38" t="n">
-        <v>183.1958181402557</v>
+        <v>395.5108088001604</v>
       </c>
       <c r="R38" t="n">
-        <v>86.00808318238151</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378502</v>
@@ -37640,7 +37640,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>306.7545905945775</v>
       </c>
       <c r="K41" t="n">
-        <v>257.5646495407338</v>
+        <v>581.7100621118985</v>
       </c>
       <c r="L41" t="n">
         <v>774.4674446572013</v>
       </c>
       <c r="M41" t="n">
-        <v>878.5185444385603</v>
+        <v>845.7229967026924</v>
       </c>
       <c r="N41" t="n">
-        <v>877.9540974496157</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O41" t="n">
-        <v>637.3860201810299</v>
+        <v>783.3830797577182</v>
       </c>
       <c r="P41" t="n">
         <v>630.5444021352776</v>
@@ -37859,10 +37859,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K42" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676405</v>
       </c>
       <c r="L42" t="n">
-        <v>328.0496171437445</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M42" t="n">
         <v>366.9313322820406</v>
@@ -37874,13 +37874,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P42" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q42" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>308.745693963795</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.1958181402551</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R44" t="n">
         <v>20.29166330939907</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
         <v>451.0527332560634</v>
@@ -38108,16 +38108,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O45" t="n">
-        <v>365.7939385020175</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P45" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R45" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
